--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/St6gal1-Cd22.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/St6gal1-Cd22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.669332</v>
+        <v>3.67969</v>
       </c>
       <c r="H2">
-        <v>11.007996</v>
+        <v>11.03907</v>
       </c>
       <c r="I2">
-        <v>0.1142408795870128</v>
+        <v>0.1515030284218922</v>
       </c>
       <c r="J2">
-        <v>0.1260733720492186</v>
+        <v>0.1550880739151339</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>8.889220333333332</v>
+        <v>0.06063066666666667</v>
       </c>
       <c r="N2">
-        <v>26.667661</v>
+        <v>0.181892</v>
       </c>
       <c r="O2">
-        <v>0.5709282459015017</v>
+        <v>0.002846046498167932</v>
       </c>
       <c r="P2">
-        <v>0.5709282459015017</v>
+        <v>0.002857869016295503</v>
       </c>
       <c r="Q2">
-        <v>32.61750062415067</v>
+        <v>0.2231020578266667</v>
       </c>
       <c r="R2">
-        <v>293.557505617356</v>
+        <v>2.00791852044</v>
       </c>
       <c r="S2">
-        <v>0.06522334499285791</v>
+        <v>0.000431184663501963</v>
       </c>
       <c r="T2">
-        <v>0.0719788491589478</v>
+        <v>0.000443221401239008</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.669332</v>
+        <v>3.67969</v>
       </c>
       <c r="H3">
-        <v>11.007996</v>
+        <v>11.03907</v>
       </c>
       <c r="I3">
-        <v>0.1142408795870128</v>
+        <v>0.1515030284218922</v>
       </c>
       <c r="J3">
-        <v>0.1260733720492186</v>
+        <v>0.1550880739151339</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,33 +620,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.680547666666667</v>
+        <v>6.459819666666665</v>
       </c>
       <c r="N3">
-        <v>20.041643</v>
+        <v>19.379459</v>
       </c>
       <c r="O3">
-        <v>0.4290717540984982</v>
+        <v>0.303228517050442</v>
       </c>
       <c r="P3">
-        <v>0.4290717540984982</v>
+        <v>0.3044881326758133</v>
       </c>
       <c r="Q3">
-        <v>24.51314733082533</v>
+        <v>23.77013382923666</v>
       </c>
       <c r="R3">
-        <v>220.618325977428</v>
+        <v>213.93120446313</v>
       </c>
       <c r="S3">
-        <v>0.04901753459415492</v>
+        <v>0.04594003863702135</v>
       </c>
       <c r="T3">
-        <v>0.05409452289027081</v>
+        <v>0.04722247802670763</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.273458666666667</v>
+        <v>3.67969</v>
       </c>
       <c r="H4">
-        <v>3.820376</v>
+        <v>11.03907</v>
       </c>
       <c r="I4">
-        <v>0.03964782641573577</v>
+        <v>0.1515030284218922</v>
       </c>
       <c r="J4">
-        <v>0.04375434773194917</v>
+        <v>0.1550880739151339</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>8.889220333333332</v>
+        <v>0.2643865</v>
       </c>
       <c r="N4">
-        <v>26.667661</v>
+        <v>0.528773</v>
       </c>
       <c r="O4">
-        <v>0.5709282459015017</v>
+        <v>0.01241048983717606</v>
       </c>
       <c r="P4">
-        <v>0.5709282459015017</v>
+        <v>0.00830802879375466</v>
       </c>
       <c r="Q4">
-        <v>11.32005467339289</v>
+        <v>0.9728603601850002</v>
       </c>
       <c r="R4">
-        <v>101.880492060536</v>
+        <v>5.837162161110001</v>
       </c>
       <c r="S4">
-        <v>0.02263606398934325</v>
+        <v>0.00188022679453129</v>
       </c>
       <c r="T4">
-        <v>0.02498059300116609</v>
+        <v>0.001288476183654883</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.273458666666667</v>
+        <v>3.67969</v>
       </c>
       <c r="H5">
-        <v>3.820376</v>
+        <v>11.03907</v>
       </c>
       <c r="I5">
-        <v>0.03964782641573577</v>
+        <v>0.1515030284218922</v>
       </c>
       <c r="J5">
-        <v>0.04375434773194917</v>
+        <v>0.1550880739151339</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.680547666666667</v>
+        <v>14.51863333333333</v>
       </c>
       <c r="N5">
-        <v>20.041643</v>
+        <v>43.5559</v>
       </c>
       <c r="O5">
-        <v>0.4290717540984982</v>
+        <v>0.6815149466142141</v>
       </c>
       <c r="P5">
-        <v>0.4290717540984982</v>
+        <v>0.6843459695141365</v>
       </c>
       <c r="Q5">
-        <v>8.507401324196444</v>
+        <v>53.42406989033334</v>
       </c>
       <c r="R5">
-        <v>76.56661191776799</v>
+        <v>480.8166290130001</v>
       </c>
       <c r="S5">
-        <v>0.01701176242639252</v>
+        <v>0.1032515783268376</v>
       </c>
       <c r="T5">
-        <v>0.01877375473078308</v>
+        <v>0.1061338983035324</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,61 +788,61 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.210356666666668</v>
+        <v>1.273458666666667</v>
       </c>
       <c r="H6">
-        <v>24.63107</v>
+        <v>3.820376</v>
       </c>
       <c r="I6">
-        <v>0.2556210142126946</v>
+        <v>0.05243182022673241</v>
       </c>
       <c r="J6">
-        <v>0.2820969459000846</v>
+        <v>0.05367252453980306</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>8.889220333333332</v>
+        <v>0.06063066666666667</v>
       </c>
       <c r="N6">
-        <v>26.667661</v>
+        <v>0.181892</v>
       </c>
       <c r="O6">
-        <v>0.5709282459015017</v>
+        <v>0.002846046498167932</v>
       </c>
       <c r="P6">
-        <v>0.5709282459015017</v>
+        <v>0.002857869016295503</v>
       </c>
       <c r="Q6">
-        <v>72.98366942525222</v>
+        <v>0.07721064793244445</v>
       </c>
       <c r="R6">
-        <v>656.85302482727</v>
+        <v>0.6948958313920001</v>
       </c>
       <c r="S6">
-        <v>0.1459412572600166</v>
+        <v>0.0001492233983488623</v>
       </c>
       <c r="T6">
-        <v>0.1610571144969061</v>
+        <v>0.0001533890449086632</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.210356666666668</v>
+        <v>1.273458666666667</v>
       </c>
       <c r="H7">
-        <v>24.63107</v>
+        <v>3.820376</v>
       </c>
       <c r="I7">
-        <v>0.2556210142126946</v>
+        <v>0.05243182022673241</v>
       </c>
       <c r="J7">
-        <v>0.2820969459000846</v>
+        <v>0.05367252453980306</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,95 +868,95 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.680547666666667</v>
+        <v>6.459819666666665</v>
       </c>
       <c r="N7">
-        <v>20.041643</v>
+        <v>19.379459</v>
       </c>
       <c r="O7">
-        <v>0.4290717540984982</v>
+        <v>0.303228517050442</v>
       </c>
       <c r="P7">
-        <v>0.4290717540984982</v>
+        <v>0.3044881326758133</v>
       </c>
       <c r="Q7">
-        <v>54.84967907200112</v>
+        <v>8.226313339620443</v>
       </c>
       <c r="R7">
-        <v>493.64711164801</v>
+        <v>74.03682005658399</v>
       </c>
       <c r="S7">
-        <v>0.109679756952678</v>
+        <v>0.01589882309360744</v>
       </c>
       <c r="T7">
-        <v>0.1210398314031784</v>
+        <v>0.0163426467731214</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.043563499999999</v>
+        <v>1.273458666666667</v>
       </c>
       <c r="H8">
-        <v>18.087127</v>
+        <v>3.820376</v>
       </c>
       <c r="I8">
-        <v>0.2815620523956416</v>
+        <v>0.05243182022673241</v>
       </c>
       <c r="J8">
-        <v>0.2071498837365554</v>
+        <v>0.05367252453980306</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>8.889220333333332</v>
+        <v>0.2643865</v>
       </c>
       <c r="N8">
-        <v>26.667661</v>
+        <v>0.528773</v>
       </c>
       <c r="O8">
-        <v>0.5709282459015017</v>
+        <v>0.01241048983717606</v>
       </c>
       <c r="P8">
-        <v>0.5709282459015017</v>
+        <v>0.00830802879375466</v>
       </c>
       <c r="Q8">
-        <v>80.39022854999115</v>
+        <v>0.3366852797746667</v>
       </c>
       <c r="R8">
-        <v>482.341371299947</v>
+        <v>2.020111678648</v>
       </c>
       <c r="S8">
-        <v>0.1607517286866704</v>
+        <v>0.0006507045720685048</v>
       </c>
       <c r="T8">
-        <v>0.1182677197604116</v>
+        <v>0.0004459128793101873</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,22 +968,22 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.043563499999999</v>
+        <v>1.273458666666667</v>
       </c>
       <c r="H9">
-        <v>18.087127</v>
+        <v>3.820376</v>
       </c>
       <c r="I9">
-        <v>0.2815620523956416</v>
+        <v>0.05243182022673241</v>
       </c>
       <c r="J9">
-        <v>0.2071498837365554</v>
+        <v>0.05367252453980306</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.680547666666667</v>
+        <v>14.51863333333333</v>
       </c>
       <c r="N9">
-        <v>20.041643</v>
+        <v>43.5559</v>
       </c>
       <c r="O9">
-        <v>0.4290717540984982</v>
+        <v>0.6815149466142141</v>
       </c>
       <c r="P9">
-        <v>0.4290717540984982</v>
+        <v>0.6843459695141365</v>
       </c>
       <c r="Q9">
-        <v>60.41595703827683</v>
+        <v>18.48887944648889</v>
       </c>
       <c r="R9">
-        <v>362.495742229661</v>
+        <v>166.3999150184</v>
       </c>
       <c r="S9">
-        <v>0.1208103237089712</v>
+        <v>0.0357330691627076</v>
       </c>
       <c r="T9">
-        <v>0.0888821639761438</v>
+        <v>0.0367305758424628</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,108 +1036,728 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.922544666666667</v>
+        <v>7.125896666666667</v>
       </c>
       <c r="H10">
-        <v>29.767634</v>
+        <v>21.37769</v>
       </c>
       <c r="I10">
-        <v>0.3089282273889152</v>
+        <v>0.2933929013643722</v>
       </c>
       <c r="J10">
-        <v>0.3409254505821922</v>
+        <v>0.3003355143915945</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>8.889220333333332</v>
+        <v>0.06063066666666667</v>
       </c>
       <c r="N10">
-        <v>26.667661</v>
+        <v>0.181892</v>
       </c>
       <c r="O10">
-        <v>0.5709282459015017</v>
+        <v>0.002846046498167932</v>
       </c>
       <c r="P10">
-        <v>0.5709282459015017</v>
+        <v>0.002857869016295503</v>
       </c>
       <c r="Q10">
-        <v>88.20368580934155</v>
+        <v>0.4320478654977778</v>
       </c>
       <c r="R10">
-        <v>793.833172284074</v>
+        <v>3.88843078948</v>
       </c>
       <c r="S10">
-        <v>0.1763758509726136</v>
+        <v>0.000835009839515401</v>
       </c>
       <c r="T10">
-        <v>0.1946439694840701</v>
+        <v>0.0008583195610729102</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.125896666666667</v>
+      </c>
+      <c r="H11">
+        <v>21.37769</v>
+      </c>
+      <c r="I11">
+        <v>0.2933929013643722</v>
+      </c>
+      <c r="J11">
+        <v>0.3003355143915945</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.459819666666665</v>
+      </c>
+      <c r="N11">
+        <v>19.379459</v>
+      </c>
+      <c r="O11">
+        <v>0.303228517050442</v>
+      </c>
+      <c r="P11">
+        <v>0.3044881326758133</v>
+      </c>
+      <c r="Q11">
+        <v>46.03200742996777</v>
+      </c>
+      <c r="R11">
+        <v>414.28806686971</v>
+      </c>
+      <c r="S11">
+        <v>0.0889650943938452</v>
+      </c>
+      <c r="T11">
+        <v>0.09144859995332646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.125896666666667</v>
+      </c>
+      <c r="H12">
+        <v>21.37769</v>
+      </c>
+      <c r="I12">
+        <v>0.2933929013643722</v>
+      </c>
+      <c r="J12">
+        <v>0.3003355143915945</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>0.2643865</v>
+      </c>
+      <c r="N12">
+        <v>0.528773</v>
+      </c>
+      <c r="O12">
+        <v>0.01241048983717606</v>
+      </c>
+      <c r="P12">
+        <v>0.00830802879375466</v>
+      </c>
+      <c r="Q12">
+        <v>1.883990879061667</v>
+      </c>
+      <c r="R12">
+        <v>11.30394527437</v>
+      </c>
+      <c r="S12">
+        <v>0.00364114962068214</v>
+      </c>
+      <c r="T12">
+        <v>0.002495196101352484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.125896666666667</v>
+      </c>
+      <c r="H13">
+        <v>21.37769</v>
+      </c>
+      <c r="I13">
+        <v>0.2933929013643722</v>
+      </c>
+      <c r="J13">
+        <v>0.3003355143915945</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.51863333333333</v>
+      </c>
+      <c r="N13">
+        <v>43.5559</v>
+      </c>
+      <c r="O13">
+        <v>0.6815149466142141</v>
+      </c>
+      <c r="P13">
+        <v>0.6843459695141365</v>
+      </c>
+      <c r="Q13">
+        <v>103.4582808745556</v>
+      </c>
+      <c r="R13">
+        <v>931.1245278710001</v>
+      </c>
+      <c r="S13">
+        <v>0.1999516475103295</v>
+      </c>
+      <c r="T13">
+        <v>0.2055333987758426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.684331</v>
+      </c>
+      <c r="H14">
+        <v>3.368662</v>
+      </c>
+      <c r="I14">
+        <v>0.06934857212560681</v>
+      </c>
+      <c r="J14">
+        <v>0.04732638720934851</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.06063066666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.181892</v>
+      </c>
+      <c r="O14">
+        <v>0.002846046498167932</v>
+      </c>
+      <c r="P14">
+        <v>0.002857869016295503</v>
+      </c>
+      <c r="Q14">
+        <v>0.1021221114173333</v>
+      </c>
+      <c r="R14">
+        <v>0.612732668504</v>
+      </c>
+      <c r="S14">
+        <v>0.0001973692608510295</v>
+      </c>
+      <c r="T14">
+        <v>0.0001352526156588009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.684331</v>
+      </c>
+      <c r="H15">
+        <v>3.368662</v>
+      </c>
+      <c r="I15">
+        <v>0.06934857212560681</v>
+      </c>
+      <c r="J15">
+        <v>0.04732638720934851</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.459819666666665</v>
+      </c>
+      <c r="N15">
+        <v>19.379459</v>
+      </c>
+      <c r="O15">
+        <v>0.303228517050442</v>
+      </c>
+      <c r="P15">
+        <v>0.3044881326758133</v>
+      </c>
+      <c r="Q15">
+        <v>10.88047451897633</v>
+      </c>
+      <c r="R15">
+        <v>65.282847113858</v>
+      </c>
+      <c r="S15">
+        <v>0.02102846468521337</v>
+      </c>
+      <c r="T15">
+        <v>0.01441032326766702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.684331</v>
+      </c>
+      <c r="H16">
+        <v>3.368662</v>
+      </c>
+      <c r="I16">
+        <v>0.06934857212560681</v>
+      </c>
+      <c r="J16">
+        <v>0.04732638720934851</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.2643865</v>
+      </c>
+      <c r="N16">
+        <v>0.528773</v>
+      </c>
+      <c r="O16">
+        <v>0.01241048983717606</v>
+      </c>
+      <c r="P16">
+        <v>0.00830802879375466</v>
+      </c>
+      <c r="Q16">
+        <v>0.4453143779315</v>
+      </c>
+      <c r="R16">
+        <v>1.781257511726</v>
+      </c>
+      <c r="S16">
+        <v>0.0008606497495875145</v>
+      </c>
+      <c r="T16">
+        <v>0.0003931889876396496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>9.922544666666667</v>
-      </c>
-      <c r="H11">
-        <v>29.767634</v>
-      </c>
-      <c r="I11">
-        <v>0.3089282273889152</v>
-      </c>
-      <c r="J11">
-        <v>0.3409254505821922</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>6.680547666666667</v>
-      </c>
-      <c r="N11">
-        <v>20.041643</v>
-      </c>
-      <c r="O11">
-        <v>0.4290717540984982</v>
-      </c>
-      <c r="P11">
-        <v>0.4290717540984982</v>
-      </c>
-      <c r="Q11">
-        <v>66.28803262029578</v>
-      </c>
-      <c r="R11">
-        <v>596.592293582662</v>
-      </c>
-      <c r="S11">
-        <v>0.1325523764163016</v>
-      </c>
-      <c r="T11">
-        <v>0.1462814810981221</v>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.684331</v>
+      </c>
+      <c r="H17">
+        <v>3.368662</v>
+      </c>
+      <c r="I17">
+        <v>0.06934857212560681</v>
+      </c>
+      <c r="J17">
+        <v>0.04732638720934851</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>14.51863333333333</v>
+      </c>
+      <c r="N17">
+        <v>43.5559</v>
+      </c>
+      <c r="O17">
+        <v>0.6815149466142141</v>
+      </c>
+      <c r="P17">
+        <v>0.6843459695141365</v>
+      </c>
+      <c r="Q17">
+        <v>24.45418420096667</v>
+      </c>
+      <c r="R17">
+        <v>146.7251052058</v>
+      </c>
+      <c r="S17">
+        <v>0.04726208842995491</v>
+      </c>
+      <c r="T17">
+        <v>0.03238762233838303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>10.524521</v>
+      </c>
+      <c r="H18">
+        <v>31.573563</v>
+      </c>
+      <c r="I18">
+        <v>0.4333236778613963</v>
+      </c>
+      <c r="J18">
+        <v>0.44357749994412</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.06063066666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.181892</v>
+      </c>
+      <c r="O18">
+        <v>0.002846046498167932</v>
+      </c>
+      <c r="P18">
+        <v>0.002857869016295503</v>
+      </c>
+      <c r="Q18">
+        <v>0.6381087245773334</v>
+      </c>
+      <c r="R18">
+        <v>5.742978521196</v>
+      </c>
+      <c r="S18">
+        <v>0.001233259335950676</v>
+      </c>
+      <c r="T18">
+        <v>0.001267686393416121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>10.524521</v>
+      </c>
+      <c r="H19">
+        <v>31.573563</v>
+      </c>
+      <c r="I19">
+        <v>0.4333236778613963</v>
+      </c>
+      <c r="J19">
+        <v>0.44357749994412</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.459819666666665</v>
+      </c>
+      <c r="N19">
+        <v>19.379459</v>
+      </c>
+      <c r="O19">
+        <v>0.303228517050442</v>
+      </c>
+      <c r="P19">
+        <v>0.3044881326758133</v>
+      </c>
+      <c r="Q19">
+        <v>67.98650773804631</v>
+      </c>
+      <c r="R19">
+        <v>611.8785696424169</v>
+      </c>
+      <c r="S19">
+        <v>0.1313960962407547</v>
+      </c>
+      <c r="T19">
+        <v>0.1350640846549908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>10.524521</v>
+      </c>
+      <c r="H20">
+        <v>31.573563</v>
+      </c>
+      <c r="I20">
+        <v>0.4333236778613963</v>
+      </c>
+      <c r="J20">
+        <v>0.44357749994412</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.2643865</v>
+      </c>
+      <c r="N20">
+        <v>0.528773</v>
+      </c>
+      <c r="O20">
+        <v>0.01241048983717606</v>
+      </c>
+      <c r="P20">
+        <v>0.00830802879375466</v>
+      </c>
+      <c r="Q20">
+        <v>2.7825412713665</v>
+      </c>
+      <c r="R20">
+        <v>16.695247628199</v>
+      </c>
+      <c r="S20">
+        <v>0.005377759100306612</v>
+      </c>
+      <c r="T20">
+        <v>0.003685254641797455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>10.524521</v>
+      </c>
+      <c r="H21">
+        <v>31.573563</v>
+      </c>
+      <c r="I21">
+        <v>0.4333236778613963</v>
+      </c>
+      <c r="J21">
+        <v>0.44357749994412</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.51863333333333</v>
+      </c>
+      <c r="N21">
+        <v>43.5559</v>
+      </c>
+      <c r="O21">
+        <v>0.6815149466142141</v>
+      </c>
+      <c r="P21">
+        <v>0.6843459695141365</v>
+      </c>
+      <c r="Q21">
+        <v>152.8016614079667</v>
+      </c>
+      <c r="R21">
+        <v>1375.2149526717</v>
+      </c>
+      <c r="S21">
+        <v>0.2953165631843844</v>
+      </c>
+      <c r="T21">
+        <v>0.3035604742539157</v>
       </c>
     </row>
   </sheetData>
